--- a/FIS/rel/rel_tests/rel_gbell/rel_gbellmf_output.xlsx
+++ b/FIS/rel/rel_tests/rel_gbell/rel_gbellmf_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Final Year\Fuzzy_logic\cw\rel_tests\rel_gbell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\fuzzy_cw\rel_tests\rel_gbell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57137829-C0C4-43FE-B533-D63635F6BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6743AC-D002-4509-8B7A-79F1D7D23F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2505" windowWidth="21600" windowHeight="12810" xr2:uid="{DBAF3CF5-2B12-4B32-92E1-38786DB43149}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12150" windowHeight="19215" xr2:uid="{DBAF3CF5-2B12-4B32-92E1-38786DB43149}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47A6EED-6893-42AF-8732-525F9B88C4C7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -467,16 +467,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6.511662779849047</v>
+        <v>6.6533614677699768</v>
       </c>
       <c r="B2">
-        <v>6.51</v>
+        <v>6.65</v>
       </c>
       <c r="C2">
-        <v>6.6849999999999996</v>
+        <v>6.8250000000000002</v>
       </c>
       <c r="D2">
-        <v>6.37</v>
+        <v>6.65</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.5114002730099898</v>
+        <v>6.6530856424995237</v>
       </c>
       <c r="B3">
-        <v>6.51</v>
+        <v>6.65</v>
       </c>
       <c r="C3">
-        <v>6.6849999999999996</v>
+        <v>6.8250000000000002</v>
       </c>
       <c r="D3">
-        <v>6.37</v>
+        <v>6.65</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -507,16 +507,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.3829695846921908</v>
+        <v>6.4870478861640493</v>
       </c>
       <c r="B4">
-        <v>6.44</v>
+        <v>6.58</v>
       </c>
       <c r="C4">
-        <v>6.544999999999999</v>
+        <v>6.6849999999999996</v>
       </c>
       <c r="D4">
-        <v>6.09</v>
+        <v>6.37</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.0207948964017115</v>
+        <v>5.0200398341069929</v>
       </c>
       <c r="B5">
         <v>5.04</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.9927451709021495</v>
+        <v>4.9821449463128404</v>
       </c>
       <c r="B6">
         <v>4.97</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.9725123929126465</v>
+        <v>4.8869376298898617</v>
       </c>
       <c r="B7">
         <v>4.97</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.8270341405763508</v>
+        <v>4.2415601632227649</v>
       </c>
       <c r="B8">
-        <v>4.9000000000000004</v>
+        <v>4.83</v>
       </c>
       <c r="C8">
         <v>5.004999999999999</v>
@@ -607,19 +607,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.0202318753896815</v>
+        <v>1.9133361742774782</v>
       </c>
       <c r="B9">
-        <v>3.99</v>
+        <v>2.52</v>
       </c>
       <c r="C9">
-        <v>3.9899999999999993</v>
+        <v>1.6984210526315786</v>
       </c>
       <c r="D9">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4.2699999999999996</v>
+        <v>3.29</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -627,19 +627,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.9990095044886331</v>
+        <v>1.8493932646872038</v>
       </c>
       <c r="B10">
-        <v>3.99</v>
+        <v>2.52</v>
       </c>
       <c r="C10">
-        <v>3.99</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D10">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -647,19 +647,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3.9990095044886331</v>
+        <v>1.8500369686248888</v>
       </c>
       <c r="B11">
-        <v>3.99</v>
+        <v>2.52</v>
       </c>
       <c r="C11">
-        <v>3.99</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D11">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -667,19 +667,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3.9975026135109113</v>
+        <v>1.9189517692450724</v>
       </c>
       <c r="B12">
-        <v>3.99</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C12">
-        <v>3.9900000000000015</v>
+        <v>1.843333333333333</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>3.5</v>
-      </c>
-      <c r="E12">
-        <v>4.4800000000000004</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3.001218819649949</v>
+        <v>3.9999778345561698</v>
       </c>
       <c r="B13">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="C13">
-        <v>3.0100000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="D13">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="E13">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -707,19 +707,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3.0047380761299567</v>
+        <v>4.0013037154569302</v>
       </c>
       <c r="B14">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="C14">
-        <v>3.0100000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="D14">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="E14">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3.0202730270676765</v>
+        <v>4.0076567177594393</v>
       </c>
       <c r="B15">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="C15">
-        <v>3.0100000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="D15">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="E15">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3.1194652057585674</v>
+        <v>4.0470081097524773</v>
       </c>
       <c r="B16">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="C16">
-        <v>3.0100000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="D16">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="E16">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.0467628764240642</v>
+        <v>4.5295107345811161</v>
       </c>
       <c r="B17">
-        <v>4.34</v>
+        <v>4.55</v>
       </c>
       <c r="C17">
         <v>5.0049999999999981</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4.9697810945834187</v>
+        <v>4.9959730076460485</v>
       </c>
       <c r="B18">
         <v>4.97</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5.6552405442063298</v>
+        <v>5.6032173180065685</v>
       </c>
       <c r="B19">
-        <v>5.53</v>
+        <v>5.39</v>
       </c>
       <c r="C19">
-        <v>5.7750000000000004</v>
+        <v>5.7049999999999992</v>
       </c>
       <c r="D19">
         <v>4.55</v>
@@ -827,16 +827,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6.4182979900559713</v>
+        <v>6.5052365703569164</v>
       </c>
       <c r="B20">
-        <v>6.51</v>
+        <v>6.65</v>
       </c>
       <c r="C20">
-        <v>6.7199999999999989</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="D20">
-        <v>6.44</v>
+        <v>6.72</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6.4949971049356368</v>
+        <v>6.6262887742048209</v>
       </c>
       <c r="B21">
-        <v>6.51</v>
+        <v>6.65</v>
       </c>
       <c r="C21">
-        <v>6.7199999999999989</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="D21">
-        <v>6.44</v>
+        <v>6.72</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -867,16 +867,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6.508464519194292</v>
+        <v>6.6478436756426529</v>
       </c>
       <c r="B22">
-        <v>6.51</v>
+        <v>6.65</v>
       </c>
       <c r="C22">
-        <v>6.7199999999999989</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="D22">
-        <v>6.44</v>
+        <v>6.72</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3.960852102446685</v>
+        <v>3.9576152555751456</v>
       </c>
       <c r="B23">
         <v>3.99</v>
@@ -907,19 +907,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3.0008893738514275</v>
+        <v>3.9781517643804434</v>
       </c>
       <c r="B24">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="C24">
-        <v>3.01</v>
+        <v>3.9900000000000015</v>
       </c>
       <c r="D24">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="E24">
-        <v>3.5</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.051565011323107</v>
+        <v>3.5306566555034142</v>
       </c>
       <c r="B25">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="C25">
         <v>3.9900000000000015</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.286699544613132</v>
+        <v>3.8205977259450385</v>
       </c>
       <c r="B26">
-        <v>4.34</v>
+        <v>4.13</v>
       </c>
       <c r="C26">
         <v>4.4800000000000004</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3.9910145808651261</v>
+        <v>1.8508364547271403</v>
       </c>
       <c r="B27">
-        <v>3.99</v>
+        <v>2.52</v>
       </c>
       <c r="C27">
-        <v>3.99</v>
+        <v>1.0266666666666664</v>
       </c>
       <c r="D27">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
